--- a/excel/3mo/three_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/three_line_alerts_3mo_backup.xlsx
@@ -16,14 +16,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +48,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +429,4847 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>stockname</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>alert_date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>rowNumber</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>date1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>row1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>value1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>date2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>row2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>value2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>date3</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>row3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>value3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>buyORsell</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>slope</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>intercept</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>window_size</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>percentage_value</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>pivot_line_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5473.10009765625</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8390.5498046875</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>416.7785295758928</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2972.428920200893</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3575.699951171875</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="H3" t="n">
+        <v>17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>5615</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>203.9300048828125</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2148.189916992187</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5473.10009765625</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14747.7001953125</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>343.5037073206018</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3412.077853732639</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="C5" t="n">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8390.5498046875</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="H5" t="n">
+        <v>33</v>
+      </c>
+      <c r="I5" t="n">
+        <v>14747.7001953125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>317.85751953125</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4258.40205078125</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C6" t="n">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3575.699951171875</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H6" t="n">
+        <v>34</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7984.2001953125</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>163.2777868200232</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2432.755443431713</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C7" t="n">
+        <v>38</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5615</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H7" t="n">
+        <v>34</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7984.2001953125</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>139.3647173713235</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3245.7998046875</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>41334</v>
+      </c>
+      <c r="E8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5473.10009765625</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H8" t="n">
+        <v>40</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19778.94921875</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>420.7602682674632</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2948.53848805147</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C9" t="n">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>41974</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8390.5498046875</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H9" t="n">
+        <v>40</v>
+      </c>
+      <c r="I9" t="n">
+        <v>19778.94921875</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>421.7925708912037</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2907.246383101852</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C10" t="n">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="E10" t="n">
+        <v>33</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14747.7001953125</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H10" t="n">
+        <v>40</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19778.94921875</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>718.7498604910714</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-8971.045200892859</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NIFTY_FIN_SERVICE.NS</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E11" t="n">
+        <v>34</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7984.2001953125</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H11" t="n">
+        <v>43</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14857.2998046875</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>763.677734375</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-17980.8427734375</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>650</v>
+      </c>
+      <c r="G12" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="H12" t="n">
+        <v>11</v>
+      </c>
+      <c r="I12" t="n">
+        <v>430.7000122070312</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v>-43.85999755859376</v>
+      </c>
+      <c r="O12" t="n">
+        <v>913.1599853515626</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BANDHANBNK.NS</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C13" t="n">
+        <v>24</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>152.1999969482422</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+      <c r="I13" t="n">
+        <v>182.1499938964844</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v>2.495833079020185</v>
+      </c>
+      <c r="O13" t="n">
+        <v>132.2333323160807</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="C14" t="n">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>509.3999938964844</v>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="H14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I14" t="n">
+        <v>537.2999877929688</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v>3.099999321831597</v>
+      </c>
+      <c r="O14" t="n">
+        <v>500.0999959309896</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G15" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H15" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>226.1000061035156</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>-10.25000000000001</v>
+      </c>
+      <c r="O15" t="n">
+        <v>369.6000061035157</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>DMART.NS</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2560</v>
+      </c>
+      <c r="G16" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H16" t="n">
+        <v>18</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5900</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>477.1428571428572</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-2688.571428571429</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C17" t="n">
+        <v>14</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="n">
+        <v>805</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>27.70000203450521</v>
+      </c>
+      <c r="O17" t="n">
+        <v>527.999979654948</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C18" t="n">
+        <v>24</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>509.3999938964844</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H18" t="n">
+        <v>20</v>
+      </c>
+      <c r="I18" t="n">
+        <v>724.2999877929688</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>12.6411761115579</v>
+      </c>
+      <c r="O18" t="n">
+        <v>471.4764655618106</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="E19" t="n">
+        <v>12</v>
+      </c>
+      <c r="F19" t="n">
+        <v>537.2999877929688</v>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>724.2999877929688</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>23.375</v>
+      </c>
+      <c r="O19" t="n">
+        <v>256.7999877929688</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C20" t="n">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="E20" t="n">
+        <v>4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>638.7999877929688</v>
+      </c>
+      <c r="G20" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H20" t="n">
+        <v>22</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>22.79167005750868</v>
+      </c>
+      <c r="O20" t="n">
+        <v>547.6333075629341</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C21" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="E21" t="n">
+        <v>9</v>
+      </c>
+      <c r="F21" t="n">
+        <v>277.3500061035156</v>
+      </c>
+      <c r="G21" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H21" t="n">
+        <v>26</v>
+      </c>
+      <c r="I21" t="n">
+        <v>380.7000122070312</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>6.07941212373621</v>
+      </c>
+      <c r="O21" t="n">
+        <v>222.6352969898898</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ICICIPRULI.NS</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14</v>
+      </c>
+      <c r="F22" t="n">
+        <v>226.1000061035156</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H22" t="n">
+        <v>26</v>
+      </c>
+      <c r="I22" t="n">
+        <v>380.7000122070312</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>12.88333384195963</v>
+      </c>
+      <c r="O22" t="n">
+        <v>45.73333231608075</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ICICIGI.NS</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C23" t="n">
+        <v>26</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>805</v>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H23" t="n">
+        <v>22</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1049.050048828125</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>20.33750406901042</v>
+      </c>
+      <c r="O23" t="n">
+        <v>601.6249593098958</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BDL.NS</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+      <c r="F24" t="n">
+        <v>112.5</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>72.65000152587891</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>-7.969999694824219</v>
+      </c>
+      <c r="O24" t="n">
+        <v>136.4099990844726</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>DALBHARAT.NS</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C25" t="n">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>402.7000122070312</v>
+      </c>
+      <c r="G25" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H25" t="n">
+        <v>14</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1212.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>89.97777642144098</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-47.1888699001737</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>DIXON.NS</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>312</v>
+      </c>
+      <c r="G26" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H26" t="n">
+        <v>21</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2553</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>160.0714285714286</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-808.5</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>IRCON.NS</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="C27" t="n">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
+        <v>59.90000152587891</v>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+      <c r="I27" t="n">
+        <v>54.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>-1.412500381469728</v>
+      </c>
+      <c r="O27" t="n">
+        <v>66.96250343322755</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>IRCON.NS</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C28" t="n">
+        <v>19</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>29</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H28" t="n">
+        <v>15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>34.79999923706055</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>0.6444443596733941</v>
+      </c>
+      <c r="O28" t="n">
+        <v>25.13333384195964</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>94</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="H29" t="n">
+        <v>13</v>
+      </c>
+      <c r="I29" t="n">
+        <v>115</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>2.333333333333333</v>
+      </c>
+      <c r="O29" t="n">
+        <v>84.66666666666666</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>195.6000061035156</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="H30" t="n">
+        <v>23</v>
+      </c>
+      <c r="I30" t="n">
+        <v>786</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>39.35999959309896</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-119.279990641276</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GUJGASLTD.NS</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C31" t="n">
+        <v>31</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="E31" t="n">
+        <v>13</v>
+      </c>
+      <c r="F31" t="n">
+        <v>115</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H31" t="n">
+        <v>27</v>
+      </c>
+      <c r="I31" t="n">
+        <v>403.5499877929688</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>20.61071341378349</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-152.9392743791853</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>499.6499938964844</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="H32" t="n">
+        <v>19</v>
+      </c>
+      <c r="I32" t="n">
+        <v>482.7999877929688</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.872222900390619</v>
+      </c>
+      <c r="O32" t="n">
+        <v>518.3722229003905</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C33" t="n">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>41791</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1894.400024414062</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="H33" t="n">
+        <v>18</v>
+      </c>
+      <c r="I33" t="n">
+        <v>647</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>-89.10000174386157</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2250.800031389508</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C34" t="n">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E34" t="n">
+        <v>16</v>
+      </c>
+      <c r="F34" t="n">
+        <v>281.75</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H34" t="n">
+        <v>29</v>
+      </c>
+      <c r="I34" t="n">
+        <v>120.0500030517578</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>-12.43846130371094</v>
+      </c>
+      <c r="O34" t="n">
+        <v>480.765380859375</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C35" t="n">
+        <v>31</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E35" t="n">
+        <v>14</v>
+      </c>
+      <c r="F35" t="n">
+        <v>318.0499877929688</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H35" t="n">
+        <v>27</v>
+      </c>
+      <c r="I35" t="n">
+        <v>250</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>-5.234614445612984</v>
+      </c>
+      <c r="O35" t="n">
+        <v>391.3345900315505</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C36" t="n">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
+        <v>499.6499938964844</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H36" t="n">
+        <v>35</v>
+      </c>
+      <c r="I36" t="n">
+        <v>332.7999877929688</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>-6.674000244140622</v>
+      </c>
+      <c r="O36" t="n">
+        <v>566.3899963378906</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C37" t="n">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="E37" t="n">
+        <v>19</v>
+      </c>
+      <c r="F37" t="n">
+        <v>482.7999877929688</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H37" t="n">
+        <v>35</v>
+      </c>
+      <c r="I37" t="n">
+        <v>332.7999877929688</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>-9.375</v>
+      </c>
+      <c r="O37" t="n">
+        <v>660.9249877929688</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C38" t="n">
+        <v>44</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="E38" t="n">
+        <v>16</v>
+      </c>
+      <c r="F38" t="n">
+        <v>281.75</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H38" t="n">
+        <v>40</v>
+      </c>
+      <c r="I38" t="n">
+        <v>135.1499938964844</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>-6.108333587646483</v>
+      </c>
+      <c r="O38" t="n">
+        <v>379.4833374023437</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C39" t="n">
+        <v>36</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="E39" t="n">
+        <v>18</v>
+      </c>
+      <c r="F39" t="n">
+        <v>647</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="H39" t="n">
+        <v>24</v>
+      </c>
+      <c r="I39" t="n">
+        <v>824.7999877929688</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>29.63333129882812</v>
+      </c>
+      <c r="O39" t="n">
+        <v>113.6000366210938</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C40" t="n">
+        <v>36</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="E40" t="n">
+        <v>18</v>
+      </c>
+      <c r="F40" t="n">
+        <v>647</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="H40" t="n">
+        <v>32</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1138</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>35.07142857142857</v>
+      </c>
+      <c r="O40" t="n">
+        <v>15.71428571428578</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36</v>
+      </c>
+      <c r="D41" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="E41" t="n">
+        <v>24</v>
+      </c>
+      <c r="F41" t="n">
+        <v>824.7999877929688</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>44348</v>
+      </c>
+      <c r="H41" t="n">
+        <v>32</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1138</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>39.15000152587891</v>
+      </c>
+      <c r="O41" t="n">
+        <v>-114.800048828125</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>JUSTDIAL.NS</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E42" t="n">
+        <v>27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>250</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H42" t="n">
+        <v>36</v>
+      </c>
+      <c r="I42" t="n">
+        <v>520</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>30</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-560</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C43" t="n">
+        <v>28</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>41244</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" t="n">
+        <v>23.09499931335449</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="H43" t="n">
+        <v>24</v>
+      </c>
+      <c r="I43" t="n">
+        <v>257.5</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>11.72025003433228</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-23.7860008239746</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="C44" t="n">
+        <v>32</v>
+      </c>
+      <c r="D44" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="E44" t="n">
+        <v>7</v>
+      </c>
+      <c r="F44" t="n">
+        <v>13.15999984741211</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="H44" t="n">
+        <v>28</v>
+      </c>
+      <c r="I44" t="n">
+        <v>100.3300018310547</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>4.150952475411552</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-15.89666748046876</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C45" t="n">
+        <v>37</v>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>41518</v>
+      </c>
+      <c r="E45" t="n">
+        <v>7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>13.15999984741211</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H45" t="n">
+        <v>33</v>
+      </c>
+      <c r="I45" t="n">
+        <v>103</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.45538462125338</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-11.02769250136156</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>APLAPOLLO.NS</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C46" t="n">
+        <v>37</v>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="E46" t="n">
+        <v>28</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100.3300018310547</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H46" t="n">
+        <v>33</v>
+      </c>
+      <c r="I46" t="n">
+        <v>103</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>0.5339996337890597</v>
+      </c>
+      <c r="O46" t="n">
+        <v>85.37801208496103</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>42795</v>
+      </c>
+      <c r="C47" t="n">
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
+      <c r="F47" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="H47" t="n">
+        <v>16</v>
+      </c>
+      <c r="I47" t="n">
+        <v>126</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>22</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C48" t="n">
+        <v>36</v>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="E48" t="n">
+        <v>5</v>
+      </c>
+      <c r="F48" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H48" t="n">
+        <v>32</v>
+      </c>
+      <c r="I48" t="n">
+        <v>58</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="O48" t="n">
+        <v>53.85185185185185</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C49" t="n">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>42430</v>
+      </c>
+      <c r="E49" t="n">
+        <v>16</v>
+      </c>
+      <c r="F49" t="n">
+        <v>126</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H49" t="n">
+        <v>32</v>
+      </c>
+      <c r="I49" t="n">
+        <v>58</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v>-4.25</v>
+      </c>
+      <c r="O49" t="n">
+        <v>194</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SCHNEIDER.NS</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45</v>
+      </c>
+      <c r="D50" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E50" t="n">
+        <v>32</v>
+      </c>
+      <c r="F50" t="n">
+        <v>58</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H50" t="n">
+        <v>41</v>
+      </c>
+      <c r="I50" t="n">
+        <v>91.69999694824219</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>3.744444105360243</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-61.82221137152777</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>ZODIAC.NS</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C51" t="n">
+        <v>13</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>43525</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>7.150000095367432</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>5.625</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.3812500238418579</v>
+      </c>
+      <c r="O51" t="n">
+        <v>9.056250214576721</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CROWN.NS</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C52" t="n">
+        <v>20</v>
+      </c>
+      <c r="D52" s="2" t="n">
+        <v>43617</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9</v>
+      </c>
+      <c r="F52" t="n">
+        <v>5.980000019073486</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="H52" t="n">
+        <v>16</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7.980000019073486</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="O52" t="n">
+        <v>3.408571447644915</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>PREMEXPLN.NS</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="C53" t="n">
+        <v>28</v>
+      </c>
+      <c r="D53" s="2" t="n">
+        <v>42887</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" t="n">
+        <v>539</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="H53" t="n">
+        <v>24</v>
+      </c>
+      <c r="I53" t="n">
+        <v>532.9000244140625</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.304998779296875</v>
+      </c>
+      <c r="O53" t="n">
+        <v>540.2199951171875</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CDSL.NS</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C54" t="n">
+        <v>27</v>
+      </c>
+      <c r="D54" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E54" t="n">
+        <v>11</v>
+      </c>
+      <c r="F54" t="n">
+        <v>179.8000030517578</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H54" t="n">
+        <v>23</v>
+      </c>
+      <c r="I54" t="n">
+        <v>880.9000244140625</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>58.42500178019205</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-462.8750165303547</v>
+      </c>
+      <c r="P54" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>ERIS.NS</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C55" t="n">
+        <v>21</v>
+      </c>
+      <c r="D55" s="2" t="n">
+        <v>43160</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" t="n">
+        <v>849</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H55" t="n">
+        <v>17</v>
+      </c>
+      <c r="I55" t="n">
+        <v>863</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>846</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="n">
+        <v>42705</v>
+      </c>
+      <c r="C56" t="n">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="E56" t="n">
+        <v>5</v>
+      </c>
+      <c r="F56" t="n">
+        <v>238.1499938964844</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="H56" t="n">
+        <v>15</v>
+      </c>
+      <c r="I56" t="n">
+        <v>725</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>48.68500061035157</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-5.275009155273438</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>ERIS.NS</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C57" t="n">
+        <v>27</v>
+      </c>
+      <c r="D57" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E57" t="n">
+        <v>11</v>
+      </c>
+      <c r="F57" t="n">
+        <v>321</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H57" t="n">
+        <v>23</v>
+      </c>
+      <c r="I57" t="n">
+        <v>551.2999877929688</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>19.19166564941406</v>
+      </c>
+      <c r="O57" t="n">
+        <v>109.8916778564453</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="C58" t="n">
+        <v>22</v>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E58" t="n">
+        <v>12</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1289.900024414062</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="H58" t="n">
+        <v>18</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1420</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>21.68332926432299</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1029.700073242186</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C59" t="n">
+        <v>24</v>
+      </c>
+      <c r="D59" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="E59" t="n">
+        <v>10</v>
+      </c>
+      <c r="F59" t="n">
+        <v>46.45000076293945</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H59" t="n">
+        <v>20</v>
+      </c>
+      <c r="I59" t="n">
+        <v>21.29999923706055</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>-2.51500015258789</v>
+      </c>
+      <c r="O59" t="n">
+        <v>71.60000228881836</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="C60" t="n">
+        <v>31</v>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>41426</v>
+      </c>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
+      <c r="F60" t="n">
+        <v>238.1499938964844</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="H60" t="n">
+        <v>27</v>
+      </c>
+      <c r="I60" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>18.42500027743253</v>
+      </c>
+      <c r="O60" t="n">
+        <v>146.0249925093217</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C61" t="n">
+        <v>31</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+      <c r="F61" t="n">
+        <v>134.4499969482422</v>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="H61" t="n">
+        <v>11</v>
+      </c>
+      <c r="I61" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.037500381469727</v>
+      </c>
+      <c r="O61" t="n">
+        <v>125.337495803833</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="n">
+        <v>43800</v>
+      </c>
+      <c r="C62" t="n">
+        <v>31</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="E62" t="n">
+        <v>15</v>
+      </c>
+      <c r="F62" t="n">
+        <v>725</v>
+      </c>
+      <c r="G62" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="H62" t="n">
+        <v>27</v>
+      </c>
+      <c r="I62" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>-6.791666666666667</v>
+      </c>
+      <c r="O62" t="n">
+        <v>826.875</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C63" t="n">
+        <v>31</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>42339</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3</v>
+      </c>
+      <c r="F63" t="n">
+        <v>134.4499969482422</v>
+      </c>
+      <c r="G63" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="H63" t="n">
+        <v>27</v>
+      </c>
+      <c r="I63" t="n">
+        <v>257.75</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>5.137500127156575</v>
+      </c>
+      <c r="O63" t="n">
+        <v>119.0374965667725</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ZENTEC.NS</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C64" t="n">
+        <v>31</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="E64" t="n">
+        <v>11</v>
+      </c>
+      <c r="F64" t="n">
+        <v>158.75</v>
+      </c>
+      <c r="G64" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="H64" t="n">
+        <v>27</v>
+      </c>
+      <c r="I64" t="n">
+        <v>257.75</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>6.1875</v>
+      </c>
+      <c r="O64" t="n">
+        <v>90.6875</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C65" t="n">
+        <v>38</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E65" t="n">
+        <v>12</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1289.900024414062</v>
+      </c>
+      <c r="G65" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="H65" t="n">
+        <v>34</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1875</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>26.59545343572445</v>
+      </c>
+      <c r="O65" t="n">
+        <v>970.7545831853686</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="C66" t="n">
+        <v>38</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="E66" t="n">
+        <v>18</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="H66" t="n">
+        <v>34</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1875</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>28.4375</v>
+      </c>
+      <c r="O66" t="n">
+        <v>908.125</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C67" t="n">
+        <v>42</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>42064</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1289.900024414062</v>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H67" t="n">
+        <v>38</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2135</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>32.50384521484376</v>
+      </c>
+      <c r="O67" t="n">
+        <v>899.8538818359369</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C68" t="n">
+        <v>42</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="E68" t="n">
+        <v>18</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1420</v>
+      </c>
+      <c r="G68" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H68" t="n">
+        <v>38</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2135</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>35.75</v>
+      </c>
+      <c r="O68" t="n">
+        <v>776.5</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C69" t="n">
+        <v>42</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>44075</v>
+      </c>
+      <c r="E69" t="n">
+        <v>34</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1875</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H69" t="n">
+        <v>38</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2135</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>65</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-335</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>MCX.NS</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C70" t="n">
+        <v>44</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="E70" t="n">
+        <v>27</v>
+      </c>
+      <c r="F70" t="n">
+        <v>643.5</v>
+      </c>
+      <c r="G70" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="H70" t="n">
+        <v>40</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1143</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>38.42307692307692</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-393.9230769230769</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>URJA.NS</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="C71" t="n">
+        <v>16</v>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>43344</v>
+      </c>
+      <c r="E71" t="n">
+        <v>6</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.483726024627686</v>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="H71" t="n">
+        <v>12</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.8615180253982544</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.1037013332049053</v>
+      </c>
+      <c r="O71" t="n">
+        <v>2.105934023857118</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>URJA.NS</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="C72" t="n">
+        <v>19</v>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.955325126647949</v>
+      </c>
+      <c r="G72" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="H72" t="n">
+        <v>15</v>
+      </c>
+      <c r="I72" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.05044372876485189</v>
+      </c>
+      <c r="O72" t="n">
+        <v>10.1066563129425</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>URJA.NS</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C73" t="n">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3</v>
+      </c>
+      <c r="F73" t="n">
+        <v>9.955325126647949</v>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19</v>
+      </c>
+      <c r="I73" t="n">
+        <v>33.40000152587891</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>1.465292274951935</v>
+      </c>
+      <c r="O73" t="n">
+        <v>5.559448301792145</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>1</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>URJA.NS</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C74" t="n">
+        <v>23</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>44166</v>
+      </c>
+      <c r="E74" t="n">
+        <v>15</v>
+      </c>
+      <c r="F74" t="n">
+        <v>9.350000381469727</v>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="H74" t="n">
+        <v>19</v>
+      </c>
+      <c r="I74" t="n">
+        <v>33.40000152587891</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>6.012500286102297</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-80.83750391006473</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>URJA.NS</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C75" t="n">
+        <v>28</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E75" t="n">
+        <v>12</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.8615180253982544</v>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H75" t="n">
+        <v>24</v>
+      </c>
+      <c r="I75" t="n">
+        <v>6</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>0.4282068312168121</v>
+      </c>
+      <c r="O75" t="n">
+        <v>-4.276963949203491</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>PCJEWELLER.NS</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="n">
+        <v>43435</v>
+      </c>
+      <c r="C76" t="n">
+        <v>24</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>42156</v>
+      </c>
+      <c r="E76" t="n">
+        <v>10</v>
+      </c>
+      <c r="F76" t="n">
+        <v>246.6999969482422</v>
+      </c>
+      <c r="G76" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="H76" t="n">
+        <v>20</v>
+      </c>
+      <c r="I76" t="n">
+        <v>600.6500244140625</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>35.39500274658203</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-107.2500305175781</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>PCJEWELLER.NS</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C77" t="n">
+        <v>37</v>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="E77" t="n">
+        <v>20</v>
+      </c>
+      <c r="F77" t="n">
+        <v>600.6500244140625</v>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="H77" t="n">
+        <v>33</v>
+      </c>
+      <c r="I77" t="n">
+        <v>32.95000076293945</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>-43.66923258854793</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1474.034676185021</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>PCJEWELLER.NS</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="C78" t="n">
+        <v>41</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E78" t="n">
+        <v>29</v>
+      </c>
+      <c r="F78" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="H78" t="n">
+        <v>37</v>
+      </c>
+      <c r="I78" t="n">
+        <v>18.54999923706055</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>1.349999904632569</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-31.3999972343445</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>PCJEWELLER.NS</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C79" t="n">
+        <v>43</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>43070</v>
+      </c>
+      <c r="E79" t="n">
+        <v>20</v>
+      </c>
+      <c r="F79" t="n">
+        <v>600.6500244140625</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="H79" t="n">
+        <v>39</v>
+      </c>
+      <c r="I79" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>-26.06052760074013</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1121.860576428865</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>PCJEWELLER.NS</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="C80" t="n">
+        <v>43</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="E80" t="n">
+        <v>33</v>
+      </c>
+      <c r="F80" t="n">
+        <v>32.95000076293945</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="H80" t="n">
+        <v>39</v>
+      </c>
+      <c r="I80" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>12.09166653951009</v>
+      </c>
+      <c r="O80" t="n">
+        <v>-366.0749950408936</v>
+      </c>
+      <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>1</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/excel/3mo/three_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/three_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5269,6 +5269,246 @@
         <v>2</v>
       </c>
     </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LALPATHLAB.NS</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="C81" t="n">
+        <v>27</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>42614</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1280</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="H81" t="n">
+        <v>23</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4245.5</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>148.275</v>
+      </c>
+      <c r="O81" t="n">
+        <v>835.175</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>LALPATHLAB.NS</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C82" t="n">
+        <v>33</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>42979</v>
+      </c>
+      <c r="E82" t="n">
+        <v>7</v>
+      </c>
+      <c r="F82" t="n">
+        <v>723.0499877929688</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H82" t="n">
+        <v>29</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1762.050048828125</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>47.22727550159801</v>
+      </c>
+      <c r="O82" t="n">
+        <v>392.4590592817827</v>
+      </c>
+      <c r="P82" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>LALPATHLAB.NS</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C83" t="n">
+        <v>33</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="E83" t="n">
+        <v>25</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1805.550048828125</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="H83" t="n">
+        <v>29</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1762.050048828125</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>-10.875</v>
+      </c>
+      <c r="O83" t="n">
+        <v>2077.425048828125</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>INDUSTOWER.NS</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="C84" t="n">
+        <v>44</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>43891</v>
+      </c>
+      <c r="E84" t="n">
+        <v>29</v>
+      </c>
+      <c r="F84" t="n">
+        <v>120.0500030517578</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="H84" t="n">
+        <v>40</v>
+      </c>
+      <c r="I84" t="n">
+        <v>135.1499938964844</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>1.372726440429691</v>
+      </c>
+      <c r="O84" t="n">
+        <v>80.24093627929675</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/3mo/three_line_alerts_3mo_backup.xlsx
+++ b/excel/3mo/three_line_alerts_3mo_backup.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R84"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5509,6 +5509,66 @@
         <v>2</v>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CROWN.NS</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="C85" t="n">
+        <v>20</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="E85" t="n">
+        <v>10</v>
+      </c>
+      <c r="F85" t="n">
+        <v>5.980000019073486</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>44256</v>
+      </c>
+      <c r="H85" t="n">
+        <v>16</v>
+      </c>
+      <c r="I85" t="n">
+        <v>7.980000019073486</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="O85" t="n">
+        <v>2.646666685740153</v>
+      </c>
+      <c r="P85" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
